--- a/global_data/day_data/003002.xlsx
+++ b/global_data/day_data/003002.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1113"/>
+  <dimension ref="A1:I1115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32685,6 +32687,64 @@
         <v>0.01693237712201537</v>
       </c>
     </row>
+    <row r="1114" spans="1:9">
+      <c r="A1114" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B1114">
+        <v>25.85</v>
+      </c>
+      <c r="C1114">
+        <v>26.45</v>
+      </c>
+      <c r="D1114">
+        <v>25.58</v>
+      </c>
+      <c r="E1114">
+        <v>25.84</v>
+      </c>
+      <c r="F1114">
+        <v>2818700</v>
+      </c>
+      <c r="G1114">
+        <v>73131862</v>
+      </c>
+      <c r="H1114">
+        <v>182874500</v>
+      </c>
+      <c r="I1114">
+        <v>0.01541330256542055</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:9">
+      <c r="A1115" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B1115">
+        <v>26</v>
+      </c>
+      <c r="C1115">
+        <v>26.7</v>
+      </c>
+      <c r="D1115">
+        <v>25.59</v>
+      </c>
+      <c r="E1115">
+        <v>26.53</v>
+      </c>
+      <c r="F1115">
+        <v>3652200</v>
+      </c>
+      <c r="G1115">
+        <v>96103288</v>
+      </c>
+      <c r="H1115">
+        <v>182874500</v>
+      </c>
+      <c r="I1115">
+        <v>0.01997107305829954</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
